--- a/Projeto/saida_Final.xlsx
+++ b/Projeto/saida_Final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>nome</t>
   </si>
@@ -145,6 +145,45 @@
   </si>
   <si>
     <t>capital_social</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>complemento</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>data_situacao</t>
+  </si>
+  <si>
+    <t>natureza_juridica</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fantasia</t>
   </si>
   <si>
     <t>12.592.831/0001-89</t>
@@ -1290,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,7 +1337,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1314,19 +1353,58 @@
       <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>40199.00625</v>
@@ -1334,19 +1412,32 @@
       <c r="F2" t="n">
         <v>476990302</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>40187.00763888889</v>
@@ -1354,19 +1445,32 @@
       <c r="F3" t="n">
         <v>4206983.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>40549.00486111111</v>
@@ -1374,19 +1478,32 @@
       <c r="F4" t="n">
         <v>1117796</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>40911.00138888889</v>
@@ -1394,19 +1511,32 @@
       <c r="F5" t="n">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>40930.00416666667</v>
@@ -1414,19 +1544,32 @@
       <c r="F6" t="n">
         <v>491792277.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>40919.00486111111</v>
@@ -1434,19 +1577,32 @@
       <c r="F7" t="n">
         <v>38553675.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>40914.00486111111</v>
@@ -1454,19 +1610,32 @@
       <c r="F8" t="n">
         <v>895899621.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>41296.00555555556</v>
@@ -1474,6 +1643,19 @@
       <c r="F9" t="n">
         <v>1001000</v>
       </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
